--- a/loop0.xlsx
+++ b/loop0.xlsx
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H2" t="n">
         <v>291</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H3" t="n">
         <v>291</v>
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H4" t="n">
         <v>148</v>
@@ -620,10 +620,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H5" t="n">
         <v>290</v>
@@ -657,10 +657,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H6" t="n">
         <v>159</v>
@@ -694,10 +694,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H7" t="n">
         <v>307</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>466</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H8" t="n">
         <v>466</v>
@@ -768,10 +768,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H9" t="n">
         <v>326</v>
@@ -805,10 +805,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H10" t="n">
         <v>308</v>
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H11" t="n">
         <v>295</v>
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H12" t="n">
         <v>149</v>
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H13" t="n">
         <v>18</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H15" t="n">
         <v>277</v>
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H16" t="n">
         <v>270</v>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H17" t="n">
         <v>159</v>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H18" t="n">
         <v>282</v>
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H19" t="n">
         <v>282</v>
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H20" t="n">
         <v>291</v>
@@ -1212,10 +1212,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H21" t="n">
         <v>8</v>
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H22" t="n">
         <v>29</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H23" t="n">
         <v>19</v>
@@ -1323,10 +1323,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H24" t="n">
         <v>28</v>
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H25" t="n">
         <v>17</v>
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H26" t="n">
         <v>112</v>
@@ -1434,10 +1434,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H27" t="n">
         <v>75</v>
@@ -1471,10 +1471,10 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H28" t="n">
         <v>119</v>
@@ -1508,10 +1508,10 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H29" t="n">
         <v>70</v>
@@ -1545,10 +1545,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H30" t="n">
         <v>61</v>
@@ -1582,10 +1582,10 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H31" t="n">
         <v>35</v>
@@ -1619,10 +1619,10 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H32" t="n">
         <v>89</v>
@@ -1656,10 +1656,10 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H33" t="n">
         <v>85</v>
@@ -1693,10 +1693,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H34" t="n">
         <v>97</v>
@@ -1730,10 +1730,10 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H35" t="n">
         <v>150</v>
@@ -1767,10 +1767,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H36" t="n">
         <v>131</v>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H37" t="n">
         <v>64</v>
@@ -1841,10 +1841,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H38" t="n">
         <v>50</v>
@@ -1878,10 +1878,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H39" t="n">
         <v>142</v>
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H40" t="n">
         <v>62</v>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H41" t="n">
         <v>79</v>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H42" t="n">
         <v>48</v>
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H43" t="n">
         <v>79</v>
@@ -2063,10 +2063,10 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H44" t="n">
         <v>34</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>6918856501</v>
       </c>
       <c r="H46" t="n">
         <v>247</v>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H47" t="n">
         <v>305</v>
@@ -2211,10 +2211,10 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H48" t="n">
         <v>141</v>
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H49" t="n">
         <v>96</v>
@@ -2285,10 +2285,10 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H50" t="n">
         <v>79</v>
@@ -2322,10 +2322,10 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H51" t="n">
         <v>66</v>
@@ -2359,10 +2359,10 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H52" t="n">
         <v>43</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H53" t="n">
         <v>299</v>
@@ -2433,10 +2433,10 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H54" t="n">
         <v>291</v>
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>293</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H55" t="n">
         <v>291</v>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H56" t="n">
         <v>282</v>
@@ -2544,10 +2544,10 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H57" t="n">
         <v>275</v>
@@ -2581,10 +2581,10 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H58" t="n">
         <v>298</v>
@@ -2618,10 +2618,10 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H59" t="n">
         <v>295</v>
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H60" t="n">
         <v>270</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H61" t="n">
         <v>281</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H62" t="n">
         <v>283</v>
@@ -2766,10 +2766,10 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H63" t="n">
         <v>292</v>
@@ -2803,10 +2803,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H64" t="n">
         <v>286</v>
@@ -2840,10 +2840,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H65" t="n">
         <v>283</v>
@@ -2877,10 +2877,10 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H66" t="n">
         <v>290</v>
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H67" t="n">
         <v>289</v>
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>41416532</v>
       </c>
       <c r="H68" t="n">
         <v>307</v>
@@ -2991,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H70" t="n">
         <v>436</v>
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>8934295040</v>
       </c>
       <c r="H71" t="n">
         <v>378</v>
